--- a/resources/coffee_machine/User/requirements.xlsx
+++ b/resources/coffee_machine/User/requirements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t xml:space="preserve">SRS_ID</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">T_ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER_SRS_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cancel</t>
   </si>
   <si>
     <t xml:space="preserve">USER_SRS_7</t>
@@ -269,7 +260,7 @@
   <dimension ref="A1:GZ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,20 +550,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
